--- a/results/result_openai_filtervalue_specdomain.xlsx
+++ b/results/result_openai_filtervalue_specdomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petronas-my.sharepoint.com/personal/mzarif_wafiy_petronas_com/Documents/Documents/Python Files/CDE Advisor/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_E0EB649018712A71454C4EF79D94985C53B26EC5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08F0028A-61FA-42BA-9403-FF4EEFECAF02}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_E1EB64908C292D3B8F9EC6995D8035A25D9B657F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEF0B569-90E7-4197-A055-268956E44E54}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="field_desc_vs_data_element" sheetId="1" r:id="rId1"/>
@@ -1194,10 +1194,14 @@
   <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1209,138 +1213,138 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>0.1429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>0.1429</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <v>0.1429</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1429</v>
+        <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>0.12139999999999999</v>
+        <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.1429</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1429</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>0.1429</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>6.6600000000000006E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>0.1429</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1348,220 +1352,220 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B21">
-        <v>0.1429</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B36">
-        <v>0.1429</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B40">
-        <v>0.1429</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1569,7 +1573,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1577,7 +1581,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1585,7 +1589,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1593,7 +1597,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1601,7 +1605,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1609,7 +1613,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1617,7 +1621,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1625,7 +1629,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1633,7 +1637,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1641,23 +1645,23 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B56">
-        <v>0.30869999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B57">
-        <v>3.5799999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1665,7 +1669,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1673,15 +1677,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1689,15 +1693,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>0.42859999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1705,7 +1709,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1713,7 +1717,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1721,31 +1725,31 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B66">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B67">
-        <v>0.252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B68">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1753,7 +1757,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1761,7 +1765,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1769,15 +1773,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B72">
-        <v>0.42859999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1785,23 +1789,23 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B74">
-        <v>3.3300000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B75">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1809,7 +1813,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1817,7 +1821,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1825,7 +1829,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1833,23 +1837,23 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B80">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B81">
-        <v>4.4699999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1857,7 +1861,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1865,7 +1869,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1873,7 +1877,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1881,23 +1885,23 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B86">
-        <v>9.0899999999999995E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B87">
-        <v>3.3300000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1905,31 +1909,31 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B89">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B90">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B91">
-        <v>6.6600000000000006E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1937,7 +1941,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1945,7 +1949,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1953,31 +1957,31 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B95">
-        <v>0.41420000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B96">
-        <v>8.3299999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B97">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1985,15 +1989,15 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B99">
-        <v>0.42859999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2001,23 +2005,23 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B101">
-        <v>3.7199999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B102">
-        <v>0.1183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2025,7 +2029,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2033,7 +2037,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2041,7 +2045,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2049,7 +2053,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2057,7 +2061,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2065,7 +2069,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2073,7 +2077,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2081,7 +2085,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2089,7 +2093,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2097,7 +2101,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2105,7 +2109,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2113,7 +2117,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2121,7 +2125,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2129,7 +2133,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2137,15 +2141,15 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B118">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2153,15 +2157,15 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B120">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2169,7 +2173,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2177,7 +2181,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2185,7 +2189,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2193,7 +2197,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2201,7 +2205,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2209,15 +2213,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B127">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2233,23 +2237,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B130">
-        <v>6.6600000000000006E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B131">
-        <v>0.16669999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2257,7 +2261,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2265,7 +2269,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2273,13 +2277,16 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B135">
+    <sortCondition descending="1" ref="B1:B135"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 For Internal Use - For Internal Distribution Only&amp;1#_x000D_</oddHeader>
@@ -2291,9 +2298,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2305,26 +2318,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="B2">
-        <v>0.42859999999999998</v>
+        <v>0.74560000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="B3">
-        <v>0.45450000000000002</v>
+        <v>0.74560000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="B4">
-        <v>0.1429</v>
+        <v>0.74560000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2332,375 +2345,375 @@
         <v>128</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B6">
-        <v>0.1429</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="B10">
-        <v>0.1429</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="B15">
-        <v>7.5300000000000006E-2</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.72309999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.72309999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.72309999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.72309999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.72309999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="B22">
-        <v>0.71430000000000005</v>
+        <v>0.72309999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.72309999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.72309999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.43719999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="B29">
-        <v>0.1429</v>
+        <v>0.43719999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="B30">
-        <v>6.6600000000000006E-2</v>
+        <v>0.43719999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="B35">
-        <v>3.8800000000000001E-2</v>
+        <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B36">
-        <v>6.6600000000000006E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B37">
-        <v>3.3300000000000003E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B44">
-        <v>0.1429</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B45">
-        <v>3.3300000000000003E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B47">
-        <v>3.3300000000000003E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49">
-        <v>7.1400000000000005E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51">
-        <v>3.8800000000000001E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2708,7 +2721,7 @@
         <v>175</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2716,196 +2729,196 @@
         <v>176</v>
       </c>
       <c r="B53">
-        <v>5.1200000000000002E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B54">
-        <v>0.1429</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B56">
-        <v>3.3300000000000003E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B60">
-        <v>4.8599999999999997E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B61">
-        <v>6.25E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B62">
-        <v>3.3300000000000003E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="B67">
-        <v>0.4667</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B70">
-        <v>2.2200000000000001E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="B76">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2913,23 +2926,23 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="B78">
-        <v>0.41670000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="B79">
-        <v>0.42849999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2937,15 +2950,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B81">
-        <v>4.4400000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2953,7 +2966,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2961,7 +2974,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2969,7 +2982,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2977,7 +2990,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2985,7 +2998,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2993,15 +3006,15 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="B88">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3009,7 +3022,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3017,7 +3030,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3025,23 +3038,23 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="B92">
-        <v>3.3300000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B93">
-        <v>0.45619999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3049,23 +3062,23 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="B95">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="B96">
-        <v>0.42859999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3073,7 +3086,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3081,15 +3094,15 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="B99">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3097,7 +3110,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3105,7 +3118,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3113,7 +3126,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3121,7 +3134,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3129,31 +3142,31 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="B105">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="B106">
-        <v>0.17899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="B107">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3161,15 +3174,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="B109">
-        <v>3.0300000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -3177,7 +3190,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -3185,7 +3198,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3193,23 +3206,23 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="B113">
-        <v>3.3300000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B114">
-        <v>0.13370000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3217,7 +3230,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3225,7 +3238,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3233,7 +3246,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3241,15 +3254,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="B119">
-        <v>3.4599999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3257,23 +3270,23 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="B121">
-        <v>3.7199999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B122">
-        <v>2.47E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3281,47 +3294,47 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B124">
-        <v>4.9700000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B125">
-        <v>3.7199999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B126">
-        <v>3.8100000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B127">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B128">
-        <v>3.8300000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3329,7 +3342,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3337,7 +3350,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3345,7 +3358,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3353,29 +3366,32 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B133">
-        <v>6.6600000000000006E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B134">
-        <v>2.46E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B135">
-        <v>4.5600000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B135">
+    <sortCondition descending="1" ref="B1:B135"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 For Internal Use - For Internal Distribution Only&amp;1#_x000D_</oddHeader>
@@ -3404,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.2858</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3412,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.29870000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3420,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1429</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3428,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.36659999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3436,7 +3452,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7.1400000000000005E-2</v>
+        <v>0.37059999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3444,7 +3460,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3452,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3460,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>6.0699999999999997E-2</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3468,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3476,7 +3492,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3484,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>7.1400000000000005E-2</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3492,7 +3508,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>7.1400000000000005E-2</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3500,7 +3516,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3508,7 +3524,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3.7699999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3516,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>3.3300000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3524,7 +3540,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3532,7 +3548,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>7.1400000000000005E-2</v>
+        <v>0.36659999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3540,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3548,7 +3564,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3556,7 +3572,7 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>7.1400000000000005E-2</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3564,7 +3580,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.85719999999999996</v>
+        <v>0.86660000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3572,7 +3588,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3580,7 +3596,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3588,7 +3604,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -3596,7 +3612,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -3612,7 +3628,7 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -3620,7 +3636,7 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -3628,7 +3644,7 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>3.3300000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -3652,7 +3668,7 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3660,7 +3676,7 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3668,7 +3684,7 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>1.9400000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3676,7 +3692,7 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0.1048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3684,7 +3700,7 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>1.67E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -3692,7 +3708,7 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -3700,7 +3716,7 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3708,7 +3724,7 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>7.1400000000000005E-2</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3732,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3740,7 +3756,7 @@
         <v>26</v>
       </c>
       <c r="B44">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3748,7 +3764,7 @@
         <v>27</v>
       </c>
       <c r="B45">
-        <v>1.67E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -3764,7 +3780,7 @@
         <v>41</v>
       </c>
       <c r="B47">
-        <v>1.67E-2</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -3772,7 +3788,7 @@
         <v>42</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3780,7 +3796,7 @@
         <v>43</v>
       </c>
       <c r="B49">
-        <v>3.5700000000000003E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -3788,7 +3804,7 @@
         <v>44</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -3796,7 +3812,7 @@
         <v>45</v>
       </c>
       <c r="B51">
-        <v>1.9400000000000001E-2</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -3804,7 +3820,7 @@
         <v>46</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.27979999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -3812,7 +3828,7 @@
         <v>47</v>
       </c>
       <c r="B53">
-        <v>2.5600000000000001E-2</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -3820,7 +3836,7 @@
         <v>48</v>
       </c>
       <c r="B54">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -3836,7 +3852,7 @@
         <v>50</v>
       </c>
       <c r="B56">
-        <v>0.17100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3844,7 +3860,7 @@
         <v>51</v>
       </c>
       <c r="B57">
-        <v>1.7899999999999999E-2</v>
+        <v>0.36659999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -3852,7 +3868,7 @@
         <v>52</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.56430000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -3860,7 +3876,7 @@
         <v>53</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3868,7 +3884,7 @@
         <v>54</v>
       </c>
       <c r="B60">
-        <v>9.5799999999999996E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3876,7 +3892,7 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <v>3.1199999999999999E-2</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -3884,7 +3900,7 @@
         <v>56</v>
       </c>
       <c r="B62">
-        <v>0.23100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3892,7 +3908,7 @@
         <v>57</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3908,7 +3924,7 @@
         <v>59</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3916,7 +3932,7 @@
         <v>60</v>
       </c>
       <c r="B66">
-        <v>7.1400000000000005E-2</v>
+        <v>0.21659999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3924,7 +3940,7 @@
         <v>61</v>
       </c>
       <c r="B67">
-        <v>0.3594</v>
+        <v>0.40839999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3932,7 +3948,7 @@
         <v>62</v>
       </c>
       <c r="B68">
-        <v>7.1400000000000005E-2</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3940,7 +3956,7 @@
         <v>63</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3948,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <v>1.11E-2</v>
+        <v>0.41670000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3956,7 +3972,7 @@
         <v>64</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3964,7 +3980,7 @@
         <v>65</v>
       </c>
       <c r="B72">
-        <v>0.21429999999999999</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3972,7 +3988,7 @@
         <v>66</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3980,7 +3996,7 @@
         <v>67</v>
       </c>
       <c r="B74">
-        <v>1.67E-2</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3988,7 +4004,7 @@
         <v>68</v>
       </c>
       <c r="B75">
-        <v>0.1875</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3996,7 +4012,7 @@
         <v>69</v>
       </c>
       <c r="B76">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4004,7 +4020,7 @@
         <v>70</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4012,7 +4028,7 @@
         <v>71</v>
       </c>
       <c r="B78">
-        <v>0.2084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4020,7 +4036,7 @@
         <v>71</v>
       </c>
       <c r="B79">
-        <v>0.2142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4028,7 +4044,7 @@
         <v>72</v>
       </c>
       <c r="B80">
-        <v>7.1400000000000005E-2</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4036,7 +4052,7 @@
         <v>73</v>
       </c>
       <c r="B81">
-        <v>4.4600000000000001E-2</v>
+        <v>0.21859999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4052,7 +4068,7 @@
         <v>75</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4076,7 +4092,7 @@
         <v>78</v>
       </c>
       <c r="B86">
-        <v>4.5400000000000003E-2</v>
+        <v>0.36659999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4092,7 +4108,7 @@
         <v>80</v>
       </c>
       <c r="B88">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4100,7 +4116,7 @@
         <v>81</v>
       </c>
       <c r="B89">
-        <v>7.1400000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4108,7 +4124,7 @@
         <v>82</v>
       </c>
       <c r="B90">
-        <v>7.1400000000000005E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4116,7 +4132,7 @@
         <v>83</v>
       </c>
       <c r="B91">
-        <v>3.3300000000000003E-2</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4132,7 +4148,7 @@
         <v>85</v>
       </c>
       <c r="B93">
-        <v>0.2281</v>
+        <v>0.36659999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -4140,7 +4156,7 @@
         <v>86</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.1729</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4148,7 +4164,7 @@
         <v>87</v>
       </c>
       <c r="B95">
-        <v>0.27860000000000001</v>
+        <v>0.36659999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -4156,7 +4172,7 @@
         <v>88</v>
       </c>
       <c r="B96">
-        <v>0.25600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4164,7 +4180,7 @@
         <v>89</v>
       </c>
       <c r="B97">
-        <v>7.1400000000000005E-2</v>
+        <v>0.21859999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4180,7 +4196,7 @@
         <v>90</v>
       </c>
       <c r="B99">
-        <v>0.2858</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4196,7 +4212,7 @@
         <v>92</v>
       </c>
       <c r="B101">
-        <v>1.8599999999999998E-2</v>
+        <v>0.38940000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4204,7 +4220,7 @@
         <v>83</v>
       </c>
       <c r="B102">
-        <v>5.9200000000000003E-2</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4212,7 +4228,7 @@
         <v>93</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>0.21859999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4228,7 +4244,7 @@
         <v>95</v>
       </c>
       <c r="B105">
-        <v>9.3799999999999994E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4236,7 +4252,7 @@
         <v>96</v>
       </c>
       <c r="B106">
-        <v>8.9499999999999996E-2</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4244,7 +4260,7 @@
         <v>96</v>
       </c>
       <c r="B107">
-        <v>7.1400000000000005E-2</v>
+        <v>0.36159999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -4252,7 +4268,7 @@
         <v>97</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>0.36659999999999998</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -4260,7 +4276,7 @@
         <v>98</v>
       </c>
       <c r="B109">
-        <v>1.52E-2</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -4276,7 +4292,7 @@
         <v>100</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -4284,7 +4300,7 @@
         <v>101</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4292,7 +4308,7 @@
         <v>102</v>
       </c>
       <c r="B113">
-        <v>1.67E-2</v>
+        <v>0.36159999999999998</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4300,7 +4316,7 @@
         <v>103</v>
       </c>
       <c r="B114">
-        <v>6.6900000000000001E-2</v>
+        <v>0.36159999999999998</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4308,7 +4324,7 @@
         <v>104</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>0.58120000000000005</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4316,7 +4332,7 @@
         <v>105</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>0.73329999999999995</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4324,7 +4340,7 @@
         <v>106</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4332,7 +4348,7 @@
         <v>107</v>
       </c>
       <c r="B118">
-        <v>7.1400000000000005E-2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4340,7 +4356,7 @@
         <v>108</v>
       </c>
       <c r="B119">
-        <v>1.7299999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4348,7 +4364,7 @@
         <v>109</v>
       </c>
       <c r="B120">
-        <v>3.5700000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4356,7 +4372,7 @@
         <v>110</v>
       </c>
       <c r="B121">
-        <v>1.8599999999999998E-2</v>
+        <v>0.36159999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4364,7 +4380,7 @@
         <v>111</v>
       </c>
       <c r="B122">
-        <v>1.24E-2</v>
+        <v>0.37280000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4380,7 +4396,7 @@
         <v>113</v>
       </c>
       <c r="B124">
-        <v>2.4799999999999999E-2</v>
+        <v>0.36159999999999998</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -4388,7 +4404,7 @@
         <v>114</v>
       </c>
       <c r="B125">
-        <v>1.8599999999999998E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -4396,7 +4412,7 @@
         <v>115</v>
       </c>
       <c r="B126">
-        <v>1.9E-2</v>
+        <v>0.36659999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -4404,7 +4420,7 @@
         <v>116</v>
       </c>
       <c r="B127">
-        <v>9.6500000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -4412,7 +4428,7 @@
         <v>117</v>
       </c>
       <c r="B128">
-        <v>1.9199999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -4428,7 +4444,7 @@
         <v>118</v>
       </c>
       <c r="B130">
-        <v>3.3300000000000003E-2</v>
+        <v>0.38329999999999997</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -4436,7 +4452,7 @@
         <v>119</v>
       </c>
       <c r="B131">
-        <v>8.3299999999999999E-2</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -4444,7 +4460,7 @@
         <v>120</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>0.36159999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -4452,7 +4468,7 @@
         <v>121</v>
       </c>
       <c r="B133">
-        <v>3.3300000000000003E-2</v>
+        <v>0.36159999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -4460,7 +4476,7 @@
         <v>122</v>
       </c>
       <c r="B134">
-        <v>1.23E-2</v>
+        <v>0.36159999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -4468,7 +4484,7 @@
         <v>123</v>
       </c>
       <c r="B135">
-        <v>2.2800000000000001E-2</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4483,18 +4499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4545,7 +4552,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>0.85719999999999996</v>
+        <v>0.86660000000000004</v>
       </c>
       <c r="D2" t="s">
         <v>145</v>
@@ -4554,28 +4561,28 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G2">
-        <v>0.3594</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="K2">
-        <v>0.29870000000000002</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="L2" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
